--- a/database/seeders/Catalogos/RolMenu.xlsx
+++ b/database/seeders/Catalogos/RolMenu.xlsx
@@ -44,9 +44,6 @@
     <t>COMBINACION (5)</t>
   </si>
   <si>
-    <t>usuarios</t>
-  </si>
-  <si>
     <t>Usuarios</t>
   </si>
   <si>
@@ -56,15 +53,9 @@
     <t>Rol</t>
   </si>
   <si>
-    <t>rol</t>
-  </si>
-  <si>
     <t>Medicina</t>
   </si>
   <si>
-    <t>medicina</t>
-  </si>
-  <si>
     <t>Médico</t>
   </si>
   <si>
@@ -89,28 +80,37 @@
     <t>Crear Historial Médico</t>
   </si>
   <si>
-    <t>medico</t>
-  </si>
-  <si>
-    <t>ingreso_asilo_form</t>
-  </si>
-  <si>
-    <t>ingreso_asilo</t>
-  </si>
-  <si>
-    <t>protegido</t>
-  </si>
-  <si>
-    <t>solicitud/medica</t>
-  </si>
-  <si>
-    <t>confirmar/solicitud/medica</t>
-  </si>
-  <si>
-    <t>consulta/medica</t>
-  </si>
-  <si>
-    <t>consulta/medica/crear/historial</t>
+    <t>/usuarios</t>
+  </si>
+  <si>
+    <t>/rol</t>
+  </si>
+  <si>
+    <t>/medicina</t>
+  </si>
+  <si>
+    <t>/ingreso_asilo_form</t>
+  </si>
+  <si>
+    <t>/protegido</t>
+  </si>
+  <si>
+    <t>/ingreso_asilo</t>
+  </si>
+  <si>
+    <t>/solicitud/medica</t>
+  </si>
+  <si>
+    <t>/confirmar/solicitud/medica</t>
+  </si>
+  <si>
+    <t>/consulta/medica</t>
+  </si>
+  <si>
+    <t>/medico</t>
+  </si>
+  <si>
+    <t>/consulta/medica/crear/historial</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,77 +489,77 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -568,68 +568,68 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
@@ -638,7 +638,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/database/seeders/Catalogos/RolMenu.xlsx
+++ b/database/seeders/Catalogos/RolMenu.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>name (0)</t>
   </si>
@@ -111,6 +111,18 @@
   </si>
   <si>
     <t>/consulta/medica/crear/historial</t>
+  </si>
+  <si>
+    <t>Mensualidad</t>
+  </si>
+  <si>
+    <t>Entregar Medicamento</t>
+  </si>
+  <si>
+    <t>/financiero/mensualidad</t>
+  </si>
+  <si>
+    <t>/entregar/medicamento</t>
   </si>
 </sst>
 </file>
@@ -446,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,6 +653,34 @@
         <v>7</v>
       </c>
     </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/database/seeders/Catalogos/RolMenu.xlsx
+++ b/database/seeders/Catalogos/RolMenu.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>name (0)</t>
   </si>
@@ -123,6 +123,24 @@
   </si>
   <si>
     <t>/entregar/medicamento</t>
+  </si>
+  <si>
+    <t>Caja Chica</t>
+  </si>
+  <si>
+    <t>/caja/chica</t>
+  </si>
+  <si>
+    <t>Donación</t>
+  </si>
+  <si>
+    <t>/donacion</t>
+  </si>
+  <si>
+    <t>Servicio</t>
+  </si>
+  <si>
+    <t>/pago/servicio</t>
   </si>
 </sst>
 </file>
@@ -458,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D17" sqref="D17:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,6 +699,48 @@
         <v>7</v>
       </c>
     </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/database/seeders/Catalogos/RolMenu.xlsx
+++ b/database/seeders/Catalogos/RolMenu.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>name (0)</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>/pago/servicio</t>
+  </si>
+  <si>
+    <t>Examenes</t>
+  </si>
+  <si>
+    <t>/realizar/examen</t>
   </si>
 </sst>
 </file>
@@ -476,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:F17"/>
+      <selection activeCell="D18" sqref="D18:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,6 +747,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
